--- a/RAW Timetable.xlsx
+++ b/RAW Timetable.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="878">
   <si>
     <t>Session ID</t>
   </si>
@@ -1463,18 +1463,6 @@
     <t>F 200 Fr S14  - F</t>
   </si>
   <si>
-    <t>M 200 I S7</t>
-  </si>
-  <si>
-    <t>M 200 I S7  - F</t>
-  </si>
-  <si>
-    <t>F 200 I S7</t>
-  </si>
-  <si>
-    <t>F 200 I S7  - F</t>
-  </si>
-  <si>
     <t>M 50 Fr S11  - F</t>
   </si>
   <si>
@@ -1526,12 +1514,6 @@
     <t>F 50 Bk S5  - H</t>
   </si>
   <si>
-    <t>M 150 I S3</t>
-  </si>
-  <si>
-    <t>M 150 I S3  - H</t>
-  </si>
-  <si>
     <t>M 100 Fr S6</t>
   </si>
   <si>
@@ -1544,30 +1526,6 @@
     <t>F 100 Fr S6  - H</t>
   </si>
   <si>
-    <t>M 200 I S10</t>
-  </si>
-  <si>
-    <t>M 200 I S10  - H</t>
-  </si>
-  <si>
-    <t>F 200 I S10</t>
-  </si>
-  <si>
-    <t>F 200 I S10  - H</t>
-  </si>
-  <si>
-    <t>M 100 Fly S11</t>
-  </si>
-  <si>
-    <t>M 100 Fly S11  - H</t>
-  </si>
-  <si>
-    <t>M 100 Fly S12</t>
-  </si>
-  <si>
-    <t>M 100 Fly S12  - H</t>
-  </si>
-  <si>
     <t>M 100 Bk S14</t>
   </si>
   <si>
@@ -1586,18 +1544,6 @@
     <t>M 100 Br SB13  - H</t>
   </si>
   <si>
-    <t>M 200 I S9</t>
-  </si>
-  <si>
-    <t>M 200 I S9  - H</t>
-  </si>
-  <si>
-    <t>F 200 I S9</t>
-  </si>
-  <si>
-    <t>F 200 I S9  - H</t>
-  </si>
-  <si>
     <t>M 400 Fr S7</t>
   </si>
   <si>
@@ -1625,27 +1571,12 @@
     <t>F 50 Bk S5  - F</t>
   </si>
   <si>
-    <t>M 150 I S3  - F</t>
-  </si>
-  <si>
-    <t>F 150 I S3</t>
-  </si>
-  <si>
-    <t>F 150 I S3  - F</t>
-  </si>
-  <si>
     <t>M 100 Fr S6  - F</t>
   </si>
   <si>
     <t>F 100 Fr S6  - F</t>
   </si>
   <si>
-    <t>M 200 I S10  - F</t>
-  </si>
-  <si>
-    <t>F 200 I S10  - F</t>
-  </si>
-  <si>
     <t>M 100 Bk S8</t>
   </si>
   <si>
@@ -1658,18 +1589,6 @@
     <t>F 100 Bk S8  - F</t>
   </si>
   <si>
-    <t>M 100 Fly S11  - F</t>
-  </si>
-  <si>
-    <t>M 100 Fly S12  - F</t>
-  </si>
-  <si>
-    <t>F 100 Fly S12</t>
-  </si>
-  <si>
-    <t>F 100 Fly S12  - F</t>
-  </si>
-  <si>
     <t>M 100 Bk S14  - F</t>
   </si>
   <si>
@@ -1685,12 +1604,6 @@
     <t>F 100 Br SB13  - F</t>
   </si>
   <si>
-    <t>M 200 I S9  - F</t>
-  </si>
-  <si>
-    <t>F 200 I S9  - F</t>
-  </si>
-  <si>
     <t>X 4x50 Fr 20pts</t>
   </si>
   <si>
@@ -1709,12 +1622,6 @@
     <t>F 100 Br SB14  - H</t>
   </si>
   <si>
-    <t>M 150 I S4</t>
-  </si>
-  <si>
-    <t>M 150 I S4  - H</t>
-  </si>
-  <si>
     <t>M 50 Fr S12</t>
   </si>
   <si>
@@ -1739,24 +1646,6 @@
     <t>F 50 Fl S5  - H</t>
   </si>
   <si>
-    <t>M 200 I S6</t>
-  </si>
-  <si>
-    <t>M 200 I S6  - H</t>
-  </si>
-  <si>
-    <t>M 100 Fly S9</t>
-  </si>
-  <si>
-    <t>M 100 Fly S9  - H</t>
-  </si>
-  <si>
-    <t>F 100 Fly S9</t>
-  </si>
-  <si>
-    <t>F 100 Fly S9  - H</t>
-  </si>
-  <si>
     <t>F 400 Fr S10</t>
   </si>
   <si>
@@ -1817,15 +1706,6 @@
     <t>F 100 Br SB14  - F</t>
   </si>
   <si>
-    <t>M 150 I S4  - F</t>
-  </si>
-  <si>
-    <t>F 150 I S4</t>
-  </si>
-  <si>
-    <t>F 150 I S4  - F</t>
-  </si>
-  <si>
     <t>M 50 Fr S12  - F</t>
   </si>
   <si>
@@ -1838,15 +1718,6 @@
     <t>F 50 Fl S5  - F</t>
   </si>
   <si>
-    <t>M 200 I S6  - F</t>
-  </si>
-  <si>
-    <t>F 200 I S6</t>
-  </si>
-  <si>
-    <t>F 200 I S6  - F</t>
-  </si>
-  <si>
     <t>M 100 Fl S9</t>
   </si>
   <si>
@@ -1892,12 +1763,6 @@
     <t>F 100 Fl S8  - F</t>
   </si>
   <si>
-    <t>X 4x50 ed 20pts</t>
-  </si>
-  <si>
-    <t>X 4x50 ed 20pts  - F</t>
-  </si>
-  <si>
     <t>M 100 Br SB12</t>
   </si>
   <si>
@@ -1940,18 +1805,6 @@
     <t>M 50 Bk S4  - H</t>
   </si>
   <si>
-    <t>M 200 I S5</t>
-  </si>
-  <si>
-    <t>M 200 I S5  - H</t>
-  </si>
-  <si>
-    <t>F 200 I S5</t>
-  </si>
-  <si>
-    <t>F 200 I S5  - H</t>
-  </si>
-  <si>
     <t>M 100 Bk S7</t>
   </si>
   <si>
@@ -1982,18 +1835,6 @@
     <t>F 400 Fr S6  - F</t>
   </si>
   <si>
-    <t>M 200 I S11</t>
-  </si>
-  <si>
-    <t>M 200 I S11  - F</t>
-  </si>
-  <si>
-    <t>F 200 I S11</t>
-  </si>
-  <si>
-    <t>F 200 I S11  - F</t>
-  </si>
-  <si>
     <t>M 100 Br SB12  - F</t>
   </si>
   <si>
@@ -2045,12 +1886,6 @@
     <t>M 200 Fr S2  - F</t>
   </si>
   <si>
-    <t>M 200 I S5  - F</t>
-  </si>
-  <si>
-    <t>F 200 I S5  - F</t>
-  </si>
-  <si>
     <t>M 100 Bk S7  - F</t>
   </si>
   <si>
@@ -2066,12 +1901,6 @@
     <t>F 100 Fr S9  - F</t>
   </si>
   <si>
-    <t>X 4x100 ed 49pts</t>
-  </si>
-  <si>
-    <t>X 4x100 ed 49pts  - F</t>
-  </si>
-  <si>
     <t>X 4x100 Fr S14</t>
   </si>
   <si>
@@ -2144,18 +1973,6 @@
     <t>M 100 Fr S12  - H</t>
   </si>
   <si>
-    <t>F 200 I S14</t>
-  </si>
-  <si>
-    <t>F 200 I S14  - H</t>
-  </si>
-  <si>
-    <t>M 200 I S14</t>
-  </si>
-  <si>
-    <t>M 200 I S14  - H</t>
-  </si>
-  <si>
     <t>F 100 Fr S11</t>
   </si>
   <si>
@@ -2198,12 +2015,6 @@
     <t>F 50 Fr S13  - H</t>
   </si>
   <si>
-    <t>X 4x100 ed 34pts</t>
-  </si>
-  <si>
-    <t>X 4x100 ed 34pts  - H</t>
-  </si>
-  <si>
     <t>F 100 Br SB5  - F</t>
   </si>
   <si>
@@ -2255,12 +2066,6 @@
     <t>M 100 Fr S12  - F</t>
   </si>
   <si>
-    <t>F 200 I S14  - F</t>
-  </si>
-  <si>
-    <t>M 200 I S14  - F</t>
-  </si>
-  <si>
     <t>F 100 Fr S11  - F</t>
   </si>
   <si>
@@ -2288,9 +2093,6 @@
     <t>M 50 Fr S13  - F</t>
   </si>
   <si>
-    <t>X 4x100 ed 34pts  - F</t>
-  </si>
-  <si>
     <t>F 400 Fr S13</t>
   </si>
   <si>
@@ -2330,18 +2132,6 @@
     <t>M 50 Bk S2  - H</t>
   </si>
   <si>
-    <t>F 200 I S8</t>
-  </si>
-  <si>
-    <t>F 200 I S8  - H</t>
-  </si>
-  <si>
-    <t>M 200 I S8</t>
-  </si>
-  <si>
-    <t>M 200 I S8  - H</t>
-  </si>
-  <si>
     <t>F 200 Fr S5</t>
   </si>
   <si>
@@ -2423,12 +2213,6 @@
     <t>M 50 Bk S1  - F</t>
   </si>
   <si>
-    <t>F 200 I S8  - F</t>
-  </si>
-  <si>
-    <t>M 200 I S8  - F</t>
-  </si>
-  <si>
     <t>F 200 Fr S5  - F</t>
   </si>
   <si>
@@ -2465,12 +2249,6 @@
     <t>M 100 Fr S10  - F</t>
   </si>
   <si>
-    <t>X 4x100 ed S14</t>
-  </si>
-  <si>
-    <t>X 4x100 ed S14  - F</t>
-  </si>
-  <si>
     <t>X 4x100 Fr 49pts</t>
   </si>
   <si>
@@ -2531,18 +2309,6 @@
     <t>M 200 Fr S4  - H</t>
   </si>
   <si>
-    <t>F 200 I S13</t>
-  </si>
-  <si>
-    <t>F 200 I S13  - H</t>
-  </si>
-  <si>
-    <t>M 200 I S13</t>
-  </si>
-  <si>
-    <t>M 200 I S13  - H</t>
-  </si>
-  <si>
     <t>F 100 Fr S5</t>
   </si>
   <si>
@@ -2627,12 +2393,6 @@
     <t>M 100 Fr S7  - F</t>
   </si>
   <si>
-    <t>F 200 I S13  - F</t>
-  </si>
-  <si>
-    <t>M 200 I S13  - F</t>
-  </si>
-  <si>
     <t>F 100 Fr S5  - F</t>
   </si>
   <si>
@@ -2667,6 +2427,240 @@
   </si>
   <si>
     <t>X 4x100 Fr 34pts  - F</t>
+  </si>
+  <si>
+    <t>X 4x50 Med 20pts</t>
+  </si>
+  <si>
+    <t>X 4x100 Med 49pts</t>
+  </si>
+  <si>
+    <t>X 4x100 Med 34pts</t>
+  </si>
+  <si>
+    <t>X 4x100 Med S14</t>
+  </si>
+  <si>
+    <t>X 4x50 Med 20pts  - F</t>
+  </si>
+  <si>
+    <t>X 4x100 Med 49pts  - F</t>
+  </si>
+  <si>
+    <t>X 4x100 Med 34pts  - H</t>
+  </si>
+  <si>
+    <t>X 4x100 Med 34pts  - F</t>
+  </si>
+  <si>
+    <t>X 4x100 Med S14  - F</t>
+  </si>
+  <si>
+    <t>F 100 Fl S12</t>
+  </si>
+  <si>
+    <t>F 100 Fl S12  - F</t>
+  </si>
+  <si>
+    <t>F 100 Fl S9  - H</t>
+  </si>
+  <si>
+    <t>M 100 Fl S11</t>
+  </si>
+  <si>
+    <t>M 100 Fl S12</t>
+  </si>
+  <si>
+    <t>M 100 Fl S11  - H</t>
+  </si>
+  <si>
+    <t>M 100 Fl S12  - H</t>
+  </si>
+  <si>
+    <t>M 100 Fl S11  - F</t>
+  </si>
+  <si>
+    <t>M 100 Fl S12  - F</t>
+  </si>
+  <si>
+    <t>M 100 Fl S9  - H</t>
+  </si>
+  <si>
+    <t>M 200 IM SM7</t>
+  </si>
+  <si>
+    <t>M 200 IM SM7  - F</t>
+  </si>
+  <si>
+    <t>F 200 IM SM7</t>
+  </si>
+  <si>
+    <t>F 200 IM SM7  - F</t>
+  </si>
+  <si>
+    <t>M 150 IM SM3</t>
+  </si>
+  <si>
+    <t>M 150 IM SM3  - H</t>
+  </si>
+  <si>
+    <t>M 200 IM SM10</t>
+  </si>
+  <si>
+    <t>M 200 IM SM10  - H</t>
+  </si>
+  <si>
+    <t>F 200 IM SM10</t>
+  </si>
+  <si>
+    <t>F 200 IM SM10  - H</t>
+  </si>
+  <si>
+    <t>M 200 IM SM9</t>
+  </si>
+  <si>
+    <t>M 200 IM SM9  - H</t>
+  </si>
+  <si>
+    <t>F 200 IM SM9</t>
+  </si>
+  <si>
+    <t>F 200 IM SM9  - H</t>
+  </si>
+  <si>
+    <t>M 150 IM SM3  - F</t>
+  </si>
+  <si>
+    <t>F 150 IM SM3</t>
+  </si>
+  <si>
+    <t>F 150 IM SM3  - F</t>
+  </si>
+  <si>
+    <t>M 200 IM SM10  - F</t>
+  </si>
+  <si>
+    <t>F 200 IM SM10  - F</t>
+  </si>
+  <si>
+    <t>M 200 IM SM9  - F</t>
+  </si>
+  <si>
+    <t>F 200 IM SM9  - F</t>
+  </si>
+  <si>
+    <t>M 150 IM SM4</t>
+  </si>
+  <si>
+    <t>M 150 IM SM4  - H</t>
+  </si>
+  <si>
+    <t>M 200 IM SM6</t>
+  </si>
+  <si>
+    <t>M 200 IM SM6  - H</t>
+  </si>
+  <si>
+    <t>M 150 IM SM4  - F</t>
+  </si>
+  <si>
+    <t>F 150 IM SM4</t>
+  </si>
+  <si>
+    <t>F 150 IM SM4  - F</t>
+  </si>
+  <si>
+    <t>M 200 IM SM6  - F</t>
+  </si>
+  <si>
+    <t>F 200 IM SM6</t>
+  </si>
+  <si>
+    <t>F 200 IM SM6  - F</t>
+  </si>
+  <si>
+    <t>M 200 IM SM5</t>
+  </si>
+  <si>
+    <t>M 200 IM SM5  - H</t>
+  </si>
+  <si>
+    <t>F 200 IM SM5</t>
+  </si>
+  <si>
+    <t>F 200 IM SM5  - H</t>
+  </si>
+  <si>
+    <t>M 200 IM SM11</t>
+  </si>
+  <si>
+    <t>M 200 IM SM11  - F</t>
+  </si>
+  <si>
+    <t>F 200 IM SM11</t>
+  </si>
+  <si>
+    <t>F 200 IM SM11  - F</t>
+  </si>
+  <si>
+    <t>M 200 IM SM5  - F</t>
+  </si>
+  <si>
+    <t>F 200 IM SM5  - F</t>
+  </si>
+  <si>
+    <t>F 200 IM SM14</t>
+  </si>
+  <si>
+    <t>F 200 IM SM14  - H</t>
+  </si>
+  <si>
+    <t>M 200 IM SM14</t>
+  </si>
+  <si>
+    <t>M 200 IM SM14  - H</t>
+  </si>
+  <si>
+    <t>F 200 IM SM14  - F</t>
+  </si>
+  <si>
+    <t>M 200 IM SM14  - F</t>
+  </si>
+  <si>
+    <t>F 200 IM SM8</t>
+  </si>
+  <si>
+    <t>F 200 IM SM8  - H</t>
+  </si>
+  <si>
+    <t>M 200 IM SM8</t>
+  </si>
+  <si>
+    <t>M 200 IM SM8  - H</t>
+  </si>
+  <si>
+    <t>F 200 IM SM8  - F</t>
+  </si>
+  <si>
+    <t>M 200 IM SM8  - F</t>
+  </si>
+  <si>
+    <t>F 200 IM SM13</t>
+  </si>
+  <si>
+    <t>F 200 IM SM13  - H</t>
+  </si>
+  <si>
+    <t>M 200 IM SM13</t>
+  </si>
+  <si>
+    <t>M 200 IM SM13  - H</t>
+  </si>
+  <si>
+    <t>F 200 IM SM13  - F</t>
+  </si>
+  <si>
+    <t>M 200 IM SM13  - F</t>
   </si>
 </sst>
 </file>
@@ -3073,20 +3067,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="8" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="14" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4576,10 +4570,10 @@
         <v>13</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>478</v>
+        <v>819</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>479</v>
+        <v>820</v>
       </c>
       <c r="N34" s="8" t="s">
         <v>32</v>
@@ -4620,10 +4614,10 @@
         <v>13</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>480</v>
+        <v>821</v>
       </c>
       <c r="M35" s="7" t="s">
-        <v>481</v>
+        <v>822</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>32</v>
@@ -4667,7 +4661,7 @@
         <v>447</v>
       </c>
       <c r="M36" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>422</v>
@@ -4711,7 +4705,7 @@
         <v>449</v>
       </c>
       <c r="M37" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="N37" s="8" t="s">
         <v>422</v>
@@ -4755,7 +4749,7 @@
         <v>451</v>
       </c>
       <c r="M38" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="N38" s="8" t="s">
         <v>422</v>
@@ -4796,10 +4790,10 @@
         <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="M39" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="N39" s="8" t="s">
         <v>422</v>
@@ -4843,7 +4837,7 @@
         <v>452</v>
       </c>
       <c r="M40" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>421</v>
@@ -4884,10 +4878,10 @@
         <v>13</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M41" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="N41" s="8" t="s">
         <v>421</v>
@@ -4931,7 +4925,7 @@
         <v>454</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N42" s="8" t="s">
         <v>421</v>
@@ -4975,7 +4969,7 @@
         <v>456</v>
       </c>
       <c r="M43" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="N43" s="8" t="s">
         <v>421</v>
@@ -5019,7 +5013,7 @@
         <v>458</v>
       </c>
       <c r="M44" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>422</v>
@@ -5063,7 +5057,7 @@
         <v>460</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="N45" s="8" t="s">
         <v>422</v>
@@ -5104,10 +5098,10 @@
         <v>14</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M46" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="N46" s="8" t="s">
         <v>422</v>
@@ -5148,10 +5142,10 @@
         <v>14</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M47" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="N47" s="8" t="s">
         <v>422</v>
@@ -5192,10 +5186,10 @@
         <v>14</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>499</v>
+        <v>823</v>
       </c>
       <c r="M48" s="7" t="s">
-        <v>500</v>
+        <v>824</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>423</v>
@@ -5236,10 +5230,10 @@
         <v>14</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="N49" s="8" t="s">
         <v>421</v>
@@ -5280,10 +5274,10 @@
         <v>14</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M50" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="N50" s="8" t="s">
         <v>421</v>
@@ -5324,10 +5318,10 @@
         <v>14</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>505</v>
+        <v>825</v>
       </c>
       <c r="M51" s="7" t="s">
-        <v>506</v>
+        <v>826</v>
       </c>
       <c r="N51" s="8" t="s">
         <v>32</v>
@@ -5368,10 +5362,10 @@
         <v>14</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>507</v>
+        <v>827</v>
       </c>
       <c r="M52" s="7" t="s">
-        <v>508</v>
+        <v>828</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>32</v>
@@ -5412,10 +5406,10 @@
         <v>14</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>509</v>
+        <v>812</v>
       </c>
       <c r="M53" s="7" t="s">
-        <v>510</v>
+        <v>814</v>
       </c>
       <c r="N53" s="8" t="s">
         <v>421</v>
@@ -5456,10 +5450,10 @@
         <v>14</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>511</v>
+        <v>813</v>
       </c>
       <c r="M54" s="7" t="s">
-        <v>512</v>
+        <v>815</v>
       </c>
       <c r="N54" s="8" t="s">
         <v>421</v>
@@ -5500,10 +5494,10 @@
         <v>14</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="M55" s="7" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="N55" s="8" t="s">
         <v>421</v>
@@ -5544,10 +5538,10 @@
         <v>14</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="M56" s="7" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="N56" s="8" t="s">
         <v>421</v>
@@ -5588,10 +5582,10 @@
         <v>14</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="M57" s="7" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="N57" s="8" t="s">
         <v>421</v>
@@ -5632,10 +5626,10 @@
         <v>14</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>519</v>
+        <v>829</v>
       </c>
       <c r="M58" s="7" t="s">
-        <v>520</v>
+        <v>830</v>
       </c>
       <c r="N58" s="8" t="s">
         <v>32</v>
@@ -5676,10 +5670,10 @@
         <v>14</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>521</v>
+        <v>831</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>522</v>
+        <v>832</v>
       </c>
       <c r="N59" s="8" t="s">
         <v>32</v>
@@ -5720,10 +5714,10 @@
         <v>13</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="M60" s="7" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="N60" s="8" t="s">
         <v>420</v>
@@ -5764,10 +5758,10 @@
         <v>13</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="N61" s="8" t="s">
         <v>420</v>
@@ -5808,10 +5802,10 @@
         <v>13</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M62" s="7" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="N62" s="8" t="s">
         <v>421</v>
@@ -5852,10 +5846,10 @@
         <v>13</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="M63" s="7" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="N63" s="8" t="s">
         <v>421</v>
@@ -5896,10 +5890,10 @@
         <v>13</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="M64" s="7" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="N64" s="8" t="s">
         <v>422</v>
@@ -5940,10 +5934,10 @@
         <v>13</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="M65" s="7" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="N65" s="8" t="s">
         <v>422</v>
@@ -5984,10 +5978,10 @@
         <v>13</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>499</v>
+        <v>823</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>532</v>
+        <v>833</v>
       </c>
       <c r="N66" s="8" t="s">
         <v>423</v>
@@ -6028,10 +6022,10 @@
         <v>13</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>533</v>
+        <v>834</v>
       </c>
       <c r="M67" s="7" t="s">
-        <v>534</v>
+        <v>835</v>
       </c>
       <c r="N67" s="8" t="s">
         <v>423</v>
@@ -6072,10 +6066,10 @@
         <v>13</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="M68" s="7" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="N68" s="8" t="s">
         <v>421</v>
@@ -6116,10 +6110,10 @@
         <v>13</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>536</v>
+        <v>515</v>
       </c>
       <c r="N69" s="8" t="s">
         <v>421</v>
@@ -6160,10 +6154,10 @@
         <v>13</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>505</v>
+        <v>825</v>
       </c>
       <c r="M70" s="7" t="s">
-        <v>537</v>
+        <v>836</v>
       </c>
       <c r="N70" s="8" t="s">
         <v>32</v>
@@ -6204,10 +6198,10 @@
         <v>13</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>507</v>
+        <v>827</v>
       </c>
       <c r="M71" s="7" t="s">
-        <v>538</v>
+        <v>837</v>
       </c>
       <c r="N71" s="8" t="s">
         <v>32</v>
@@ -6248,10 +6242,10 @@
         <v>13</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>539</v>
+        <v>516</v>
       </c>
       <c r="M72" s="7" t="s">
-        <v>540</v>
+        <v>517</v>
       </c>
       <c r="N72" s="8" t="s">
         <v>421</v>
@@ -6292,10 +6286,10 @@
         <v>13</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>541</v>
+        <v>518</v>
       </c>
       <c r="M73" s="7" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="N73" s="8" t="s">
         <v>421</v>
@@ -6336,10 +6330,10 @@
         <v>13</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>509</v>
+        <v>812</v>
       </c>
       <c r="M74" s="7" t="s">
-        <v>543</v>
+        <v>816</v>
       </c>
       <c r="N74" s="8" t="s">
         <v>421</v>
@@ -6380,10 +6374,10 @@
         <v>13</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>511</v>
+        <v>813</v>
       </c>
       <c r="M75" s="7" t="s">
-        <v>544</v>
+        <v>817</v>
       </c>
       <c r="N75" s="8" t="s">
         <v>421</v>
@@ -6424,10 +6418,10 @@
         <v>13</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>545</v>
+        <v>809</v>
       </c>
       <c r="M76" s="7" t="s">
-        <v>546</v>
+        <v>810</v>
       </c>
       <c r="N76" s="8" t="s">
         <v>421</v>
@@ -6468,10 +6462,10 @@
         <v>13</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="M77" s="7" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="N77" s="8" t="s">
         <v>421</v>
@@ -6512,10 +6506,10 @@
         <v>13</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="M78" s="7" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="N78" s="8" t="s">
         <v>421</v>
@@ -6556,10 +6550,10 @@
         <v>13</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="M79" s="7" t="s">
-        <v>549</v>
+        <v>522</v>
       </c>
       <c r="N79" s="8" t="s">
         <v>421</v>
@@ -6600,10 +6594,10 @@
         <v>13</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
       <c r="M80" s="7" t="s">
-        <v>551</v>
+        <v>524</v>
       </c>
       <c r="N80" s="8" t="s">
         <v>421</v>
@@ -6644,10 +6638,10 @@
         <v>13</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>519</v>
+        <v>829</v>
       </c>
       <c r="M81" s="7" t="s">
-        <v>552</v>
+        <v>838</v>
       </c>
       <c r="N81" s="8" t="s">
         <v>32</v>
@@ -6688,10 +6682,10 @@
         <v>13</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>521</v>
+        <v>831</v>
       </c>
       <c r="M82" s="7" t="s">
-        <v>553</v>
+        <v>839</v>
       </c>
       <c r="N82" s="8" t="s">
         <v>32</v>
@@ -6732,10 +6726,10 @@
         <v>13</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="M83" s="7" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="N83" s="8">
         <v>50</v>
@@ -6776,10 +6770,10 @@
         <v>14</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="M84" s="7" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="N84" s="8" t="s">
         <v>421</v>
@@ -6820,10 +6814,10 @@
         <v>14</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="M85" s="7" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="N85" s="8" t="s">
         <v>421</v>
@@ -6864,10 +6858,10 @@
         <v>14</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="M86" s="7" t="s">
-        <v>561</v>
+        <v>841</v>
       </c>
       <c r="N86" s="8" t="s">
         <v>423</v>
@@ -6908,10 +6902,10 @@
         <v>14</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="M87" s="7" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="N87" s="8" t="s">
         <v>422</v>
@@ -6952,10 +6946,10 @@
         <v>14</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="M88" s="7" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="N88" s="8" t="s">
         <v>422</v>
@@ -6996,10 +6990,10 @@
         <v>14</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>567</v>
+        <v>536</v>
       </c>
       <c r="N89" s="8" t="s">
         <v>422</v>
@@ -7040,10 +7034,10 @@
         <v>14</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="M90" s="7" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="N90" s="8" t="s">
         <v>422</v>
@@ -7084,10 +7078,10 @@
         <v>14</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>570</v>
+        <v>842</v>
       </c>
       <c r="M91" s="7" t="s">
-        <v>571</v>
+        <v>843</v>
       </c>
       <c r="N91" s="8" t="s">
         <v>32</v>
@@ -7128,10 +7122,10 @@
         <v>14</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>573</v>
+        <v>818</v>
       </c>
       <c r="N92" s="8" t="s">
         <v>421</v>
@@ -7172,10 +7166,10 @@
         <v>14</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="M93" s="7" t="s">
-        <v>575</v>
+        <v>811</v>
       </c>
       <c r="N93" s="8" t="s">
         <v>421</v>
@@ -7216,10 +7210,10 @@
         <v>14</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="M94" s="7" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="N94" s="8" t="s">
         <v>420</v>
@@ -7260,10 +7254,10 @@
         <v>14</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>579</v>
+        <v>542</v>
       </c>
       <c r="N95" s="8" t="s">
         <v>421</v>
@@ -7304,10 +7298,10 @@
         <v>14</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="M96" s="7" t="s">
-        <v>581</v>
+        <v>544</v>
       </c>
       <c r="N96" s="8" t="s">
         <v>421</v>
@@ -7348,10 +7342,10 @@
         <v>14</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="M97" s="7" t="s">
-        <v>583</v>
+        <v>546</v>
       </c>
       <c r="N97" s="8" t="s">
         <v>421</v>
@@ -7392,10 +7386,10 @@
         <v>14</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="M98" s="7" t="s">
-        <v>585</v>
+        <v>548</v>
       </c>
       <c r="N98" s="8" t="s">
         <v>421</v>
@@ -7436,10 +7430,10 @@
         <v>13</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>586</v>
+        <v>549</v>
       </c>
       <c r="M99" s="7" t="s">
-        <v>587</v>
+        <v>550</v>
       </c>
       <c r="N99" s="8" t="s">
         <v>421</v>
@@ -7480,10 +7474,10 @@
         <v>13</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>588</v>
+        <v>551</v>
       </c>
       <c r="M100" s="7" t="s">
-        <v>589</v>
+        <v>552</v>
       </c>
       <c r="N100" s="8" t="s">
         <v>421</v>
@@ -7524,10 +7518,10 @@
         <v>13</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>590</v>
+        <v>553</v>
       </c>
       <c r="M101" s="7" t="s">
-        <v>591</v>
+        <v>554</v>
       </c>
       <c r="N101" s="8" t="s">
         <v>421</v>
@@ -7568,10 +7562,10 @@
         <v>13</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>592</v>
+        <v>555</v>
       </c>
       <c r="M102" s="7" t="s">
-        <v>593</v>
+        <v>556</v>
       </c>
       <c r="N102" s="8" t="s">
         <v>421</v>
@@ -7612,10 +7606,10 @@
         <v>13</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
       <c r="N103" s="8" t="s">
         <v>421</v>
@@ -7656,10 +7650,10 @@
         <v>13</v>
       </c>
       <c r="L104" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="M104" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="M104" s="7" t="s">
-        <v>595</v>
       </c>
       <c r="N104" s="8" t="s">
         <v>421</v>
@@ -7700,10 +7694,10 @@
         <v>13</v>
       </c>
       <c r="L105" s="7" t="s">
-        <v>560</v>
+        <v>840</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>596</v>
+        <v>844</v>
       </c>
       <c r="N105" s="8" t="s">
         <v>423</v>
@@ -7744,10 +7738,10 @@
         <v>13</v>
       </c>
       <c r="L106" s="7" t="s">
-        <v>597</v>
+        <v>845</v>
       </c>
       <c r="M106" s="7" t="s">
-        <v>598</v>
+        <v>846</v>
       </c>
       <c r="N106" s="8" t="s">
         <v>423</v>
@@ -7788,10 +7782,10 @@
         <v>13</v>
       </c>
       <c r="L107" s="7" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="M107" s="7" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="N107" s="8" t="s">
         <v>422</v>
@@ -7832,10 +7826,10 @@
         <v>13</v>
       </c>
       <c r="L108" s="7" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="M108" s="7" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="N108" s="8" t="s">
         <v>422</v>
@@ -7876,10 +7870,10 @@
         <v>13</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="N109" s="8" t="s">
         <v>422</v>
@@ -7920,10 +7914,10 @@
         <v>13</v>
       </c>
       <c r="L110" s="7" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="M110" s="7" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="N110" s="8" t="s">
         <v>422</v>
@@ -7964,10 +7958,10 @@
         <v>13</v>
       </c>
       <c r="L111" s="7" t="s">
-        <v>570</v>
+        <v>842</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>603</v>
+        <v>847</v>
       </c>
       <c r="N111" s="8" t="s">
         <v>32</v>
@@ -8008,10 +8002,10 @@
         <v>13</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>604</v>
+        <v>848</v>
       </c>
       <c r="M112" s="7" t="s">
-        <v>605</v>
+        <v>849</v>
       </c>
       <c r="N112" s="8" t="s">
         <v>32</v>
@@ -8052,10 +8046,10 @@
         <v>13</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>606</v>
+        <v>563</v>
       </c>
       <c r="M113" s="7" t="s">
-        <v>607</v>
+        <v>564</v>
       </c>
       <c r="N113" s="8" t="s">
         <v>421</v>
@@ -8096,10 +8090,10 @@
         <v>13</v>
       </c>
       <c r="L114" s="7" t="s">
-        <v>608</v>
+        <v>565</v>
       </c>
       <c r="M114" s="7" t="s">
-        <v>609</v>
+        <v>566</v>
       </c>
       <c r="N114" s="8" t="s">
         <v>421</v>
@@ -8140,10 +8134,10 @@
         <v>13</v>
       </c>
       <c r="L115" s="7" t="s">
-        <v>610</v>
+        <v>567</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>611</v>
+        <v>568</v>
       </c>
       <c r="N115" s="8" t="s">
         <v>420</v>
@@ -8184,10 +8178,10 @@
         <v>13</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>576</v>
+        <v>539</v>
       </c>
       <c r="M116" s="7" t="s">
-        <v>612</v>
+        <v>569</v>
       </c>
       <c r="N116" s="8" t="s">
         <v>420</v>
@@ -8228,10 +8222,10 @@
         <v>13</v>
       </c>
       <c r="L117" s="7" t="s">
-        <v>613</v>
+        <v>570</v>
       </c>
       <c r="M117" s="7" t="s">
-        <v>614</v>
+        <v>571</v>
       </c>
       <c r="N117" s="8" t="s">
         <v>421</v>
@@ -8272,10 +8266,10 @@
         <v>13</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>615</v>
+        <v>572</v>
       </c>
       <c r="M118" s="7" t="s">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="N118" s="8" t="s">
         <v>421</v>
@@ -8316,10 +8310,10 @@
         <v>13</v>
       </c>
       <c r="L119" s="7" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>617</v>
+        <v>574</v>
       </c>
       <c r="N119" s="8" t="s">
         <v>421</v>
@@ -8360,10 +8354,10 @@
         <v>13</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>580</v>
+        <v>543</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>618</v>
+        <v>575</v>
       </c>
       <c r="N120" s="8" t="s">
         <v>421</v>
@@ -8404,10 +8398,10 @@
         <v>13</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>582</v>
+        <v>545</v>
       </c>
       <c r="M121" s="7" t="s">
-        <v>619</v>
+        <v>576</v>
       </c>
       <c r="N121" s="8" t="s">
         <v>421</v>
@@ -8448,10 +8442,10 @@
         <v>13</v>
       </c>
       <c r="L122" s="7" t="s">
-        <v>584</v>
+        <v>547</v>
       </c>
       <c r="M122" s="7" t="s">
-        <v>620</v>
+        <v>577</v>
       </c>
       <c r="N122" s="8" t="s">
         <v>421</v>
@@ -8492,10 +8486,10 @@
         <v>13</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>621</v>
+        <v>800</v>
       </c>
       <c r="M123" s="7" t="s">
-        <v>622</v>
+        <v>804</v>
       </c>
       <c r="N123" s="8">
         <v>50</v>
@@ -8536,10 +8530,10 @@
         <v>14</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>623</v>
+        <v>578</v>
       </c>
       <c r="M124" s="7" t="s">
-        <v>624</v>
+        <v>579</v>
       </c>
       <c r="N124" s="8" t="s">
         <v>421</v>
@@ -8580,10 +8574,10 @@
         <v>14</v>
       </c>
       <c r="L125" s="7" t="s">
-        <v>625</v>
+        <v>580</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>626</v>
+        <v>581</v>
       </c>
       <c r="N125" s="8" t="s">
         <v>421</v>
@@ -8624,10 +8618,10 @@
         <v>14</v>
       </c>
       <c r="L126" s="7" t="s">
-        <v>627</v>
+        <v>582</v>
       </c>
       <c r="M126" s="7" t="s">
-        <v>628</v>
+        <v>583</v>
       </c>
       <c r="N126" s="8" t="s">
         <v>421</v>
@@ -8668,10 +8662,10 @@
         <v>14</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>629</v>
+        <v>584</v>
       </c>
       <c r="M127" s="7" t="s">
-        <v>630</v>
+        <v>585</v>
       </c>
       <c r="N127" s="8" t="s">
         <v>421</v>
@@ -8712,10 +8706,10 @@
         <v>14</v>
       </c>
       <c r="L128" s="7" t="s">
-        <v>631</v>
+        <v>586</v>
       </c>
       <c r="M128" s="7" t="s">
-        <v>632</v>
+        <v>587</v>
       </c>
       <c r="N128" s="8" t="s">
         <v>422</v>
@@ -8756,10 +8750,10 @@
         <v>14</v>
       </c>
       <c r="L129" s="7" t="s">
-        <v>633</v>
+        <v>588</v>
       </c>
       <c r="M129" s="7" t="s">
-        <v>634</v>
+        <v>589</v>
       </c>
       <c r="N129" s="8" t="s">
         <v>422</v>
@@ -8800,10 +8794,10 @@
         <v>14</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>635</v>
+        <v>590</v>
       </c>
       <c r="M130" s="7" t="s">
-        <v>636</v>
+        <v>591</v>
       </c>
       <c r="N130" s="8" t="s">
         <v>422</v>
@@ -8844,10 +8838,10 @@
         <v>14</v>
       </c>
       <c r="L131" s="7" t="s">
-        <v>637</v>
+        <v>850</v>
       </c>
       <c r="M131" s="7" t="s">
-        <v>638</v>
+        <v>851</v>
       </c>
       <c r="N131" s="8" t="s">
         <v>32</v>
@@ -8888,10 +8882,10 @@
         <v>14</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>639</v>
+        <v>852</v>
       </c>
       <c r="M132" s="7" t="s">
-        <v>640</v>
+        <v>853</v>
       </c>
       <c r="N132" s="8" t="s">
         <v>32</v>
@@ -8932,10 +8926,10 @@
         <v>14</v>
       </c>
       <c r="L133" s="7" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="M133" s="7" t="s">
-        <v>642</v>
+        <v>593</v>
       </c>
       <c r="N133" s="8" t="s">
         <v>421</v>
@@ -8976,10 +8970,10 @@
         <v>14</v>
       </c>
       <c r="L134" s="7" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="M134" s="7" t="s">
-        <v>644</v>
+        <v>595</v>
       </c>
       <c r="N134" s="8" t="s">
         <v>421</v>
@@ -9020,10 +9014,10 @@
         <v>14</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="M135" s="7" t="s">
-        <v>646</v>
+        <v>597</v>
       </c>
       <c r="N135" s="8" t="s">
         <v>421</v>
@@ -9064,10 +9058,10 @@
         <v>13</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>647</v>
+        <v>598</v>
       </c>
       <c r="M136" s="7" t="s">
-        <v>648</v>
+        <v>599</v>
       </c>
       <c r="N136" s="8" t="s">
         <v>420</v>
@@ -9108,10 +9102,10 @@
         <v>13</v>
       </c>
       <c r="L137" s="7" t="s">
-        <v>649</v>
+        <v>600</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>650</v>
+        <v>601</v>
       </c>
       <c r="N137" s="8" t="s">
         <v>420</v>
@@ -9152,10 +9146,10 @@
         <v>13</v>
       </c>
       <c r="L138" s="7" t="s">
-        <v>651</v>
+        <v>854</v>
       </c>
       <c r="M138" s="7" t="s">
-        <v>652</v>
+        <v>855</v>
       </c>
       <c r="N138" s="8" t="s">
         <v>32</v>
@@ -9196,10 +9190,10 @@
         <v>13</v>
       </c>
       <c r="L139" s="7" t="s">
-        <v>653</v>
+        <v>856</v>
       </c>
       <c r="M139" s="7" t="s">
-        <v>654</v>
+        <v>857</v>
       </c>
       <c r="N139" s="8" t="s">
         <v>32</v>
@@ -9240,10 +9234,10 @@
         <v>13</v>
       </c>
       <c r="L140" s="7" t="s">
-        <v>623</v>
+        <v>578</v>
       </c>
       <c r="M140" s="7" t="s">
-        <v>655</v>
+        <v>602</v>
       </c>
       <c r="N140" s="8" t="s">
         <v>421</v>
@@ -9284,10 +9278,10 @@
         <v>13</v>
       </c>
       <c r="L141" s="7" t="s">
-        <v>625</v>
+        <v>580</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>656</v>
+        <v>603</v>
       </c>
       <c r="N141" s="8" t="s">
         <v>421</v>
@@ -9328,10 +9322,10 @@
         <v>13</v>
       </c>
       <c r="L142" s="7" t="s">
-        <v>627</v>
+        <v>582</v>
       </c>
       <c r="M142" s="7" t="s">
-        <v>657</v>
+        <v>604</v>
       </c>
       <c r="N142" s="8" t="s">
         <v>421</v>
@@ -9372,10 +9366,10 @@
         <v>13</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>658</v>
+        <v>605</v>
       </c>
       <c r="M143" s="7" t="s">
-        <v>659</v>
+        <v>606</v>
       </c>
       <c r="N143" s="8" t="s">
         <v>421</v>
@@ -9416,10 +9410,10 @@
         <v>13</v>
       </c>
       <c r="L144" s="7" t="s">
-        <v>629</v>
+        <v>584</v>
       </c>
       <c r="M144" s="7" t="s">
-        <v>660</v>
+        <v>607</v>
       </c>
       <c r="N144" s="8" t="s">
         <v>421</v>
@@ -9460,10 +9454,10 @@
         <v>13</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>661</v>
+        <v>608</v>
       </c>
       <c r="M145" s="7" t="s">
-        <v>662</v>
+        <v>609</v>
       </c>
       <c r="N145" s="8" t="s">
         <v>421</v>
@@ -9504,10 +9498,10 @@
         <v>13</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>631</v>
+        <v>586</v>
       </c>
       <c r="M146" s="7" t="s">
-        <v>663</v>
+        <v>610</v>
       </c>
       <c r="N146" s="8" t="s">
         <v>422</v>
@@ -9548,10 +9542,10 @@
         <v>13</v>
       </c>
       <c r="L147" s="7" t="s">
-        <v>633</v>
+        <v>588</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>664</v>
+        <v>611</v>
       </c>
       <c r="N147" s="8" t="s">
         <v>422</v>
@@ -9592,10 +9586,10 @@
         <v>13</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>635</v>
+        <v>590</v>
       </c>
       <c r="M148" s="7" t="s">
-        <v>665</v>
+        <v>612</v>
       </c>
       <c r="N148" s="8" t="s">
         <v>422</v>
@@ -9636,10 +9630,10 @@
         <v>13</v>
       </c>
       <c r="L149" s="7" t="s">
-        <v>666</v>
+        <v>613</v>
       </c>
       <c r="M149" s="7" t="s">
-        <v>667</v>
+        <v>614</v>
       </c>
       <c r="N149" s="8" t="s">
         <v>422</v>
@@ -9680,10 +9674,10 @@
         <v>13</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>668</v>
+        <v>615</v>
       </c>
       <c r="M150" s="7" t="s">
-        <v>669</v>
+        <v>616</v>
       </c>
       <c r="N150" s="8" t="s">
         <v>32</v>
@@ -9724,10 +9718,10 @@
         <v>13</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>670</v>
+        <v>617</v>
       </c>
       <c r="M151" s="7" t="s">
-        <v>671</v>
+        <v>618</v>
       </c>
       <c r="N151" s="8" t="s">
         <v>32</v>
@@ -9768,10 +9762,10 @@
         <v>13</v>
       </c>
       <c r="L152" s="7" t="s">
-        <v>637</v>
+        <v>850</v>
       </c>
       <c r="M152" s="7" t="s">
-        <v>672</v>
+        <v>858</v>
       </c>
       <c r="N152" s="8" t="s">
         <v>32</v>
@@ -9812,10 +9806,10 @@
         <v>13</v>
       </c>
       <c r="L153" s="7" t="s">
-        <v>639</v>
+        <v>852</v>
       </c>
       <c r="M153" s="7" t="s">
-        <v>673</v>
+        <v>859</v>
       </c>
       <c r="N153" s="8" t="s">
         <v>32</v>
@@ -9856,10 +9850,10 @@
         <v>13</v>
       </c>
       <c r="L154" s="7" t="s">
-        <v>641</v>
+        <v>592</v>
       </c>
       <c r="M154" s="7" t="s">
-        <v>674</v>
+        <v>619</v>
       </c>
       <c r="N154" s="8" t="s">
         <v>421</v>
@@ -9900,10 +9894,10 @@
         <v>13</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>675</v>
+        <v>620</v>
       </c>
       <c r="M155" s="7" t="s">
-        <v>676</v>
+        <v>621</v>
       </c>
       <c r="N155" s="8" t="s">
         <v>421</v>
@@ -9944,10 +9938,10 @@
         <v>13</v>
       </c>
       <c r="L156" s="7" t="s">
-        <v>643</v>
+        <v>594</v>
       </c>
       <c r="M156" s="7" t="s">
-        <v>677</v>
+        <v>622</v>
       </c>
       <c r="N156" s="8" t="s">
         <v>421</v>
@@ -9988,10 +9982,10 @@
         <v>13</v>
       </c>
       <c r="L157" s="7" t="s">
-        <v>645</v>
+        <v>596</v>
       </c>
       <c r="M157" s="7" t="s">
-        <v>678</v>
+        <v>623</v>
       </c>
       <c r="N157" s="8" t="s">
         <v>421</v>
@@ -10032,10 +10026,10 @@
         <v>13</v>
       </c>
       <c r="L158" s="7" t="s">
-        <v>679</v>
+        <v>801</v>
       </c>
       <c r="M158" s="7" t="s">
-        <v>680</v>
+        <v>805</v>
       </c>
       <c r="N158" s="8">
         <v>100</v>
@@ -10076,10 +10070,10 @@
         <v>13</v>
       </c>
       <c r="L159" s="7" t="s">
-        <v>681</v>
+        <v>624</v>
       </c>
       <c r="M159" s="7" t="s">
-        <v>682</v>
+        <v>625</v>
       </c>
       <c r="N159" s="8">
         <v>100</v>
@@ -10120,10 +10114,10 @@
         <v>14</v>
       </c>
       <c r="L160" s="7" t="s">
-        <v>683</v>
+        <v>626</v>
       </c>
       <c r="M160" s="7" t="s">
-        <v>684</v>
+        <v>627</v>
       </c>
       <c r="N160" s="8" t="s">
         <v>421</v>
@@ -10164,10 +10158,10 @@
         <v>14</v>
       </c>
       <c r="L161" s="7" t="s">
-        <v>685</v>
+        <v>628</v>
       </c>
       <c r="M161" s="7" t="s">
-        <v>686</v>
+        <v>629</v>
       </c>
       <c r="N161" s="8" t="s">
         <v>420</v>
@@ -10208,10 +10202,10 @@
         <v>14</v>
       </c>
       <c r="L162" s="7" t="s">
-        <v>687</v>
+        <v>630</v>
       </c>
       <c r="M162" s="7" t="s">
-        <v>688</v>
+        <v>631</v>
       </c>
       <c r="N162" s="8" t="s">
         <v>420</v>
@@ -10252,10 +10246,10 @@
         <v>14</v>
       </c>
       <c r="L163" s="7" t="s">
-        <v>689</v>
+        <v>632</v>
       </c>
       <c r="M163" s="7" t="s">
-        <v>690</v>
+        <v>633</v>
       </c>
       <c r="N163" s="8" t="s">
         <v>421</v>
@@ -10296,10 +10290,10 @@
         <v>14</v>
       </c>
       <c r="L164" s="7" t="s">
-        <v>691</v>
+        <v>634</v>
       </c>
       <c r="M164" s="7" t="s">
-        <v>692</v>
+        <v>635</v>
       </c>
       <c r="N164" s="8" t="s">
         <v>421</v>
@@ -10340,10 +10334,10 @@
         <v>14</v>
       </c>
       <c r="L165" s="7" t="s">
-        <v>693</v>
+        <v>636</v>
       </c>
       <c r="M165" s="7" t="s">
-        <v>694</v>
+        <v>637</v>
       </c>
       <c r="N165" s="8" t="s">
         <v>422</v>
@@ -10384,10 +10378,10 @@
         <v>14</v>
       </c>
       <c r="L166" s="7" t="s">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="M166" s="7" t="s">
-        <v>696</v>
+        <v>639</v>
       </c>
       <c r="N166" s="8" t="s">
         <v>422</v>
@@ -10428,10 +10422,10 @@
         <v>14</v>
       </c>
       <c r="L167" s="7" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
       <c r="M167" s="7" t="s">
-        <v>698</v>
+        <v>641</v>
       </c>
       <c r="N167" s="8" t="s">
         <v>422</v>
@@ -10472,10 +10466,10 @@
         <v>14</v>
       </c>
       <c r="L168" s="7" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="M168" s="7" t="s">
-        <v>700</v>
+        <v>643</v>
       </c>
       <c r="N168" s="8" t="s">
         <v>422</v>
@@ -10516,10 +10510,10 @@
         <v>14</v>
       </c>
       <c r="L169" s="7" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="M169" s="7" t="s">
-        <v>702</v>
+        <v>645</v>
       </c>
       <c r="N169" s="8" t="s">
         <v>421</v>
@@ -10560,10 +10554,10 @@
         <v>14</v>
       </c>
       <c r="L170" s="7" t="s">
-        <v>703</v>
+        <v>646</v>
       </c>
       <c r="M170" s="7" t="s">
-        <v>704</v>
+        <v>647</v>
       </c>
       <c r="N170" s="8" t="s">
         <v>421</v>
@@ -10604,10 +10598,10 @@
         <v>14</v>
       </c>
       <c r="L171" s="7" t="s">
-        <v>705</v>
+        <v>860</v>
       </c>
       <c r="M171" s="7" t="s">
-        <v>706</v>
+        <v>861</v>
       </c>
       <c r="N171" s="8" t="s">
         <v>32</v>
@@ -10648,10 +10642,10 @@
         <v>14</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>707</v>
+        <v>862</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>708</v>
+        <v>863</v>
       </c>
       <c r="N172" s="8" t="s">
         <v>32</v>
@@ -10692,10 +10686,10 @@
         <v>14</v>
       </c>
       <c r="L173" s="7" t="s">
-        <v>709</v>
+        <v>648</v>
       </c>
       <c r="M173" s="7" t="s">
-        <v>710</v>
+        <v>649</v>
       </c>
       <c r="N173" s="8" t="s">
         <v>421</v>
@@ -10736,10 +10730,10 @@
         <v>14</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>711</v>
+        <v>650</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>712</v>
+        <v>651</v>
       </c>
       <c r="N174" s="8" t="s">
         <v>421</v>
@@ -10780,10 +10774,10 @@
         <v>14</v>
       </c>
       <c r="L175" s="7" t="s">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="M175" s="7" t="s">
-        <v>714</v>
+        <v>653</v>
       </c>
       <c r="N175" s="8" t="s">
         <v>422</v>
@@ -10824,10 +10818,10 @@
         <v>14</v>
       </c>
       <c r="L176" s="7" t="s">
-        <v>715</v>
+        <v>654</v>
       </c>
       <c r="M176" s="7" t="s">
-        <v>716</v>
+        <v>655</v>
       </c>
       <c r="N176" s="8" t="s">
         <v>422</v>
@@ -10868,10 +10862,10 @@
         <v>14</v>
       </c>
       <c r="L177" s="7" t="s">
-        <v>717</v>
+        <v>656</v>
       </c>
       <c r="M177" s="7" t="s">
-        <v>718</v>
+        <v>657</v>
       </c>
       <c r="N177" s="8" t="s">
         <v>422</v>
@@ -10912,10 +10906,10 @@
         <v>14</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="M178" s="7" t="s">
-        <v>720</v>
+        <v>659</v>
       </c>
       <c r="N178" s="8" t="s">
         <v>422</v>
@@ -10956,10 +10950,10 @@
         <v>14</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>721</v>
+        <v>660</v>
       </c>
       <c r="M179" s="7" t="s">
-        <v>722</v>
+        <v>661</v>
       </c>
       <c r="N179" s="8" t="s">
         <v>422</v>
@@ -11000,10 +10994,10 @@
         <v>14</v>
       </c>
       <c r="L180" s="7" t="s">
-        <v>723</v>
+        <v>802</v>
       </c>
       <c r="M180" s="7" t="s">
-        <v>724</v>
+        <v>806</v>
       </c>
       <c r="N180" s="8">
         <v>100</v>
@@ -11044,10 +11038,10 @@
         <v>13</v>
       </c>
       <c r="L181" s="7" t="s">
-        <v>683</v>
+        <v>626</v>
       </c>
       <c r="M181" s="7" t="s">
-        <v>725</v>
+        <v>662</v>
       </c>
       <c r="N181" s="8" t="s">
         <v>421</v>
@@ -11088,10 +11082,10 @@
         <v>13</v>
       </c>
       <c r="L182" s="7" t="s">
-        <v>726</v>
+        <v>663</v>
       </c>
       <c r="M182" s="7" t="s">
-        <v>727</v>
+        <v>664</v>
       </c>
       <c r="N182" s="8" t="s">
         <v>421</v>
@@ -11132,10 +11126,10 @@
         <v>13</v>
       </c>
       <c r="L183" s="7" t="s">
-        <v>685</v>
+        <v>628</v>
       </c>
       <c r="M183" s="7" t="s">
-        <v>728</v>
+        <v>665</v>
       </c>
       <c r="N183" s="8" t="s">
         <v>420</v>
@@ -11176,10 +11170,10 @@
         <v>13</v>
       </c>
       <c r="L184" s="7" t="s">
-        <v>687</v>
+        <v>630</v>
       </c>
       <c r="M184" s="7" t="s">
-        <v>729</v>
+        <v>666</v>
       </c>
       <c r="N184" s="8" t="s">
         <v>420</v>
@@ -11220,10 +11214,10 @@
         <v>13</v>
       </c>
       <c r="L185" s="7" t="s">
-        <v>689</v>
+        <v>632</v>
       </c>
       <c r="M185" s="7" t="s">
-        <v>730</v>
+        <v>667</v>
       </c>
       <c r="N185" s="8" t="s">
         <v>421</v>
@@ -11264,10 +11258,10 @@
         <v>13</v>
       </c>
       <c r="L186" s="7" t="s">
-        <v>691</v>
+        <v>634</v>
       </c>
       <c r="M186" s="7" t="s">
-        <v>731</v>
+        <v>668</v>
       </c>
       <c r="N186" s="8" t="s">
         <v>421</v>
@@ -11308,10 +11302,10 @@
         <v>13</v>
       </c>
       <c r="L187" s="7" t="s">
-        <v>732</v>
+        <v>669</v>
       </c>
       <c r="M187" s="7" t="s">
-        <v>733</v>
+        <v>670</v>
       </c>
       <c r="N187" s="8" t="s">
         <v>422</v>
@@ -11352,10 +11346,10 @@
         <v>13</v>
       </c>
       <c r="L188" s="7" t="s">
-        <v>693</v>
+        <v>636</v>
       </c>
       <c r="M188" s="7" t="s">
-        <v>734</v>
+        <v>671</v>
       </c>
       <c r="N188" s="8" t="s">
         <v>422</v>
@@ -11396,10 +11390,10 @@
         <v>13</v>
       </c>
       <c r="L189" s="7" t="s">
-        <v>695</v>
+        <v>638</v>
       </c>
       <c r="M189" s="7" t="s">
-        <v>735</v>
+        <v>672</v>
       </c>
       <c r="N189" s="8" t="s">
         <v>422</v>
@@ -11440,10 +11434,10 @@
         <v>13</v>
       </c>
       <c r="L190" s="7" t="s">
-        <v>697</v>
+        <v>640</v>
       </c>
       <c r="M190" s="7" t="s">
-        <v>736</v>
+        <v>673</v>
       </c>
       <c r="N190" s="8" t="s">
         <v>422</v>
@@ -11484,10 +11478,10 @@
         <v>13</v>
       </c>
       <c r="L191" s="7" t="s">
-        <v>737</v>
+        <v>674</v>
       </c>
       <c r="M191" s="7" t="s">
-        <v>738</v>
+        <v>675</v>
       </c>
       <c r="N191" s="8" t="s">
         <v>422</v>
@@ -11528,10 +11522,10 @@
         <v>13</v>
       </c>
       <c r="L192" s="7" t="s">
-        <v>699</v>
+        <v>642</v>
       </c>
       <c r="M192" s="7" t="s">
-        <v>739</v>
+        <v>676</v>
       </c>
       <c r="N192" s="8" t="s">
         <v>422</v>
@@ -11572,10 +11566,10 @@
         <v>13</v>
       </c>
       <c r="L193" s="7" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="M193" s="7" t="s">
-        <v>740</v>
+        <v>677</v>
       </c>
       <c r="N193" s="8" t="s">
         <v>421</v>
@@ -11616,10 +11610,10 @@
         <v>13</v>
       </c>
       <c r="L194" s="7" t="s">
-        <v>703</v>
+        <v>646</v>
       </c>
       <c r="M194" s="7" t="s">
-        <v>741</v>
+        <v>678</v>
       </c>
       <c r="N194" s="8" t="s">
         <v>421</v>
@@ -11660,10 +11654,10 @@
         <v>13</v>
       </c>
       <c r="L195" s="7" t="s">
-        <v>705</v>
+        <v>860</v>
       </c>
       <c r="M195" s="7" t="s">
-        <v>742</v>
+        <v>864</v>
       </c>
       <c r="N195" s="8" t="s">
         <v>32</v>
@@ -11704,10 +11698,10 @@
         <v>13</v>
       </c>
       <c r="L196" s="7" t="s">
-        <v>707</v>
+        <v>862</v>
       </c>
       <c r="M196" s="7" t="s">
-        <v>743</v>
+        <v>865</v>
       </c>
       <c r="N196" s="8" t="s">
         <v>32</v>
@@ -11748,10 +11742,10 @@
         <v>13</v>
       </c>
       <c r="L197" s="7" t="s">
-        <v>709</v>
+        <v>648</v>
       </c>
       <c r="M197" s="7" t="s">
-        <v>744</v>
+        <v>679</v>
       </c>
       <c r="N197" s="8" t="s">
         <v>421</v>
@@ -11792,10 +11786,10 @@
         <v>13</v>
       </c>
       <c r="L198" s="7" t="s">
-        <v>711</v>
+        <v>650</v>
       </c>
       <c r="M198" s="7" t="s">
-        <v>745</v>
+        <v>680</v>
       </c>
       <c r="N198" s="8" t="s">
         <v>421</v>
@@ -11836,10 +11830,10 @@
         <v>13</v>
       </c>
       <c r="L199" s="7" t="s">
-        <v>713</v>
+        <v>652</v>
       </c>
       <c r="M199" s="7" t="s">
-        <v>746</v>
+        <v>681</v>
       </c>
       <c r="N199" s="8" t="s">
         <v>422</v>
@@ -11880,10 +11874,10 @@
         <v>13</v>
       </c>
       <c r="L200" s="7" t="s">
-        <v>715</v>
+        <v>654</v>
       </c>
       <c r="M200" s="7" t="s">
-        <v>747</v>
+        <v>682</v>
       </c>
       <c r="N200" s="8" t="s">
         <v>422</v>
@@ -11924,10 +11918,10 @@
         <v>13</v>
       </c>
       <c r="L201" s="7" t="s">
-        <v>717</v>
+        <v>656</v>
       </c>
       <c r="M201" s="7" t="s">
-        <v>748</v>
+        <v>683</v>
       </c>
       <c r="N201" s="8" t="s">
         <v>422</v>
@@ -11968,10 +11962,10 @@
         <v>13</v>
       </c>
       <c r="L202" s="7" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
       <c r="M202" s="7" t="s">
-        <v>749</v>
+        <v>684</v>
       </c>
       <c r="N202" s="8" t="s">
         <v>422</v>
@@ -12012,10 +12006,10 @@
         <v>13</v>
       </c>
       <c r="L203" s="7" t="s">
-        <v>721</v>
+        <v>660</v>
       </c>
       <c r="M203" s="7" t="s">
-        <v>750</v>
+        <v>685</v>
       </c>
       <c r="N203" s="8" t="s">
         <v>422</v>
@@ -12056,10 +12050,10 @@
         <v>13</v>
       </c>
       <c r="L204" s="7" t="s">
-        <v>751</v>
+        <v>686</v>
       </c>
       <c r="M204" s="7" t="s">
-        <v>752</v>
+        <v>687</v>
       </c>
       <c r="N204" s="8" t="s">
         <v>422</v>
@@ -12100,10 +12094,10 @@
         <v>13</v>
       </c>
       <c r="L205" s="7" t="s">
-        <v>723</v>
+        <v>802</v>
       </c>
       <c r="M205" s="7" t="s">
-        <v>753</v>
+        <v>807</v>
       </c>
       <c r="N205" s="8">
         <v>100</v>
@@ -12144,10 +12138,10 @@
         <v>14</v>
       </c>
       <c r="L206" s="7" t="s">
-        <v>754</v>
+        <v>688</v>
       </c>
       <c r="M206" s="7" t="s">
-        <v>755</v>
+        <v>689</v>
       </c>
       <c r="N206" s="8" t="s">
         <v>420</v>
@@ -12188,10 +12182,10 @@
         <v>14</v>
       </c>
       <c r="L207" s="7" t="s">
-        <v>756</v>
+        <v>690</v>
       </c>
       <c r="M207" s="7" t="s">
-        <v>757</v>
+        <v>691</v>
       </c>
       <c r="N207" s="8" t="s">
         <v>420</v>
@@ -12232,10 +12226,10 @@
         <v>14</v>
       </c>
       <c r="L208" s="7" t="s">
-        <v>758</v>
+        <v>692</v>
       </c>
       <c r="M208" s="7" t="s">
-        <v>759</v>
+        <v>693</v>
       </c>
       <c r="N208" s="8" t="s">
         <v>421</v>
@@ -12276,10 +12270,10 @@
         <v>14</v>
       </c>
       <c r="L209" s="7" t="s">
-        <v>760</v>
+        <v>694</v>
       </c>
       <c r="M209" s="7" t="s">
-        <v>761</v>
+        <v>695</v>
       </c>
       <c r="N209" s="8" t="s">
         <v>421</v>
@@ -12320,10 +12314,10 @@
         <v>14</v>
       </c>
       <c r="L210" s="7" t="s">
-        <v>763</v>
+        <v>697</v>
       </c>
       <c r="M210" s="7" t="s">
-        <v>764</v>
+        <v>698</v>
       </c>
       <c r="N210" s="8" t="s">
         <v>422</v>
@@ -12364,10 +12358,10 @@
         <v>14</v>
       </c>
       <c r="L211" s="7" t="s">
-        <v>765</v>
+        <v>699</v>
       </c>
       <c r="M211" s="7" t="s">
-        <v>766</v>
+        <v>700</v>
       </c>
       <c r="N211" s="8" t="s">
         <v>422</v>
@@ -12408,10 +12402,10 @@
         <v>14</v>
       </c>
       <c r="L212" s="7" t="s">
-        <v>767</v>
+        <v>866</v>
       </c>
       <c r="M212" s="7" t="s">
-        <v>768</v>
+        <v>867</v>
       </c>
       <c r="N212" s="8" t="s">
         <v>32</v>
@@ -12452,10 +12446,10 @@
         <v>14</v>
       </c>
       <c r="L213" s="7" t="s">
-        <v>769</v>
+        <v>868</v>
       </c>
       <c r="M213" s="7" t="s">
-        <v>770</v>
+        <v>869</v>
       </c>
       <c r="N213" s="8" t="s">
         <v>32</v>
@@ -12496,10 +12490,10 @@
         <v>14</v>
       </c>
       <c r="L214" s="7" t="s">
-        <v>771</v>
+        <v>701</v>
       </c>
       <c r="M214" s="7" t="s">
-        <v>772</v>
+        <v>702</v>
       </c>
       <c r="N214" s="8" t="s">
         <v>32</v>
@@ -12540,10 +12534,10 @@
         <v>14</v>
       </c>
       <c r="L215" s="7" t="s">
-        <v>773</v>
+        <v>703</v>
       </c>
       <c r="M215" s="7" t="s">
-        <v>774</v>
+        <v>704</v>
       </c>
       <c r="N215" s="8" t="s">
         <v>32</v>
@@ -12584,10 +12578,10 @@
         <v>14</v>
       </c>
       <c r="L216" s="7" t="s">
-        <v>775</v>
+        <v>705</v>
       </c>
       <c r="M216" s="7" t="s">
-        <v>776</v>
+        <v>706</v>
       </c>
       <c r="N216" s="8" t="s">
         <v>32</v>
@@ -12628,10 +12622,10 @@
         <v>14</v>
       </c>
       <c r="L217" s="7" t="s">
-        <v>777</v>
+        <v>707</v>
       </c>
       <c r="M217" s="7" t="s">
-        <v>778</v>
+        <v>708</v>
       </c>
       <c r="N217" s="8" t="s">
         <v>421</v>
@@ -12672,10 +12666,10 @@
         <v>14</v>
       </c>
       <c r="L218" s="7" t="s">
-        <v>779</v>
+        <v>709</v>
       </c>
       <c r="M218" s="7" t="s">
-        <v>780</v>
+        <v>710</v>
       </c>
       <c r="N218" s="8" t="s">
         <v>421</v>
@@ -12716,10 +12710,10 @@
         <v>14</v>
       </c>
       <c r="L219" s="7" t="s">
-        <v>781</v>
+        <v>711</v>
       </c>
       <c r="M219" s="7" t="s">
-        <v>782</v>
+        <v>712</v>
       </c>
       <c r="N219" s="8" t="s">
         <v>421</v>
@@ -12760,10 +12754,10 @@
         <v>14</v>
       </c>
       <c r="L220" s="7" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="M220" s="7" t="s">
-        <v>784</v>
+        <v>714</v>
       </c>
       <c r="N220" s="8" t="s">
         <v>421</v>
@@ -12804,10 +12798,10 @@
         <v>14</v>
       </c>
       <c r="L221" s="7" t="s">
-        <v>785</v>
+        <v>715</v>
       </c>
       <c r="M221" s="7" t="s">
-        <v>786</v>
+        <v>716</v>
       </c>
       <c r="N221" s="8" t="s">
         <v>421</v>
@@ -12848,10 +12842,10 @@
         <v>13</v>
       </c>
       <c r="L222" s="7" t="s">
-        <v>754</v>
+        <v>688</v>
       </c>
       <c r="M222" s="7" t="s">
-        <v>787</v>
+        <v>717</v>
       </c>
       <c r="N222" s="8" t="s">
         <v>420</v>
@@ -12892,10 +12886,10 @@
         <v>13</v>
       </c>
       <c r="L223" s="7" t="s">
-        <v>756</v>
+        <v>690</v>
       </c>
       <c r="M223" s="7" t="s">
-        <v>788</v>
+        <v>718</v>
       </c>
       <c r="N223" s="8" t="s">
         <v>420</v>
@@ -12936,10 +12930,10 @@
         <v>13</v>
       </c>
       <c r="L224" s="7" t="s">
-        <v>758</v>
+        <v>692</v>
       </c>
       <c r="M224" s="7" t="s">
-        <v>789</v>
+        <v>719</v>
       </c>
       <c r="N224" s="8" t="s">
         <v>421</v>
@@ -12980,10 +12974,10 @@
         <v>13</v>
       </c>
       <c r="L225" s="7" t="s">
-        <v>760</v>
+        <v>694</v>
       </c>
       <c r="M225" s="7" t="s">
-        <v>790</v>
+        <v>720</v>
       </c>
       <c r="N225" s="8" t="s">
         <v>421</v>
@@ -13024,10 +13018,10 @@
         <v>13</v>
       </c>
       <c r="L226" s="7" t="s">
-        <v>762</v>
+        <v>696</v>
       </c>
       <c r="M226" s="7" t="s">
-        <v>791</v>
+        <v>721</v>
       </c>
       <c r="N226" s="8" t="s">
         <v>422</v>
@@ -13068,10 +13062,10 @@
         <v>13</v>
       </c>
       <c r="L227" s="7" t="s">
-        <v>763</v>
+        <v>697</v>
       </c>
       <c r="M227" s="7" t="s">
-        <v>792</v>
+        <v>722</v>
       </c>
       <c r="N227" s="8" t="s">
         <v>422</v>
@@ -13112,10 +13106,10 @@
         <v>13</v>
       </c>
       <c r="L228" s="7" t="s">
-        <v>793</v>
+        <v>723</v>
       </c>
       <c r="M228" s="7" t="s">
-        <v>794</v>
+        <v>724</v>
       </c>
       <c r="N228" s="8" t="s">
         <v>422</v>
@@ -13156,10 +13150,10 @@
         <v>13</v>
       </c>
       <c r="L229" s="7" t="s">
-        <v>765</v>
+        <v>699</v>
       </c>
       <c r="M229" s="7" t="s">
-        <v>795</v>
+        <v>725</v>
       </c>
       <c r="N229" s="8" t="s">
         <v>422</v>
@@ -13200,10 +13194,10 @@
         <v>13</v>
       </c>
       <c r="L230" s="7" t="s">
-        <v>796</v>
+        <v>726</v>
       </c>
       <c r="M230" s="7" t="s">
-        <v>797</v>
+        <v>727</v>
       </c>
       <c r="N230" s="8" t="s">
         <v>422</v>
@@ -13244,10 +13238,10 @@
         <v>13</v>
       </c>
       <c r="L231" s="7" t="s">
-        <v>767</v>
+        <v>866</v>
       </c>
       <c r="M231" s="7" t="s">
-        <v>798</v>
+        <v>870</v>
       </c>
       <c r="N231" s="8" t="s">
         <v>32</v>
@@ -13288,10 +13282,10 @@
         <v>13</v>
       </c>
       <c r="L232" s="7" t="s">
-        <v>769</v>
+        <v>868</v>
       </c>
       <c r="M232" s="7" t="s">
-        <v>799</v>
+        <v>871</v>
       </c>
       <c r="N232" s="8" t="s">
         <v>32</v>
@@ -13332,10 +13326,10 @@
         <v>13</v>
       </c>
       <c r="L233" s="7" t="s">
-        <v>771</v>
+        <v>701</v>
       </c>
       <c r="M233" s="7" t="s">
-        <v>800</v>
+        <v>728</v>
       </c>
       <c r="N233" s="8" t="s">
         <v>32</v>
@@ -13376,10 +13370,10 @@
         <v>13</v>
       </c>
       <c r="L234" s="7" t="s">
-        <v>773</v>
+        <v>703</v>
       </c>
       <c r="M234" s="7" t="s">
-        <v>801</v>
+        <v>729</v>
       </c>
       <c r="N234" s="8" t="s">
         <v>32</v>
@@ -13420,10 +13414,10 @@
         <v>13</v>
       </c>
       <c r="L235" s="7" t="s">
-        <v>802</v>
+        <v>730</v>
       </c>
       <c r="M235" s="7" t="s">
-        <v>803</v>
+        <v>731</v>
       </c>
       <c r="N235" s="8" t="s">
         <v>32</v>
@@ -13464,10 +13458,10 @@
         <v>13</v>
       </c>
       <c r="L236" s="7" t="s">
-        <v>775</v>
+        <v>705</v>
       </c>
       <c r="M236" s="7" t="s">
-        <v>804</v>
+        <v>732</v>
       </c>
       <c r="N236" s="8" t="s">
         <v>32</v>
@@ -13508,10 +13502,10 @@
         <v>13</v>
       </c>
       <c r="L237" s="7" t="s">
-        <v>777</v>
+        <v>707</v>
       </c>
       <c r="M237" s="7" t="s">
-        <v>805</v>
+        <v>733</v>
       </c>
       <c r="N237" s="8" t="s">
         <v>421</v>
@@ -13552,10 +13546,10 @@
         <v>13</v>
       </c>
       <c r="L238" s="7" t="s">
-        <v>779</v>
+        <v>709</v>
       </c>
       <c r="M238" s="7" t="s">
-        <v>806</v>
+        <v>734</v>
       </c>
       <c r="N238" s="8" t="s">
         <v>421</v>
@@ -13596,10 +13590,10 @@
         <v>13</v>
       </c>
       <c r="L239" s="7" t="s">
-        <v>807</v>
+        <v>735</v>
       </c>
       <c r="M239" s="7" t="s">
-        <v>808</v>
+        <v>736</v>
       </c>
       <c r="N239" s="8" t="s">
         <v>421</v>
@@ -13640,10 +13634,10 @@
         <v>13</v>
       </c>
       <c r="L240" s="7" t="s">
-        <v>781</v>
+        <v>711</v>
       </c>
       <c r="M240" s="7" t="s">
-        <v>809</v>
+        <v>737</v>
       </c>
       <c r="N240" s="8" t="s">
         <v>421</v>
@@ -13684,10 +13678,10 @@
         <v>13</v>
       </c>
       <c r="L241" s="7" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="M241" s="7" t="s">
-        <v>810</v>
+        <v>738</v>
       </c>
       <c r="N241" s="8" t="s">
         <v>421</v>
@@ -13728,10 +13722,10 @@
         <v>13</v>
       </c>
       <c r="L242" s="7" t="s">
-        <v>785</v>
+        <v>715</v>
       </c>
       <c r="M242" s="7" t="s">
-        <v>811</v>
+        <v>739</v>
       </c>
       <c r="N242" s="8" t="s">
         <v>421</v>
@@ -13772,10 +13766,10 @@
         <v>13</v>
       </c>
       <c r="L243" s="7" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="M243" s="7" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="N243" s="8">
         <v>100</v>
@@ -13816,10 +13810,10 @@
         <v>13</v>
       </c>
       <c r="L244" s="7" t="s">
-        <v>814</v>
+        <v>740</v>
       </c>
       <c r="M244" s="7" t="s">
-        <v>815</v>
+        <v>741</v>
       </c>
       <c r="N244" s="8">
         <v>100</v>
@@ -13860,10 +13854,10 @@
         <v>14</v>
       </c>
       <c r="L245" s="7" t="s">
-        <v>816</v>
+        <v>742</v>
       </c>
       <c r="M245" s="7" t="s">
-        <v>817</v>
+        <v>743</v>
       </c>
       <c r="N245" s="8" t="s">
         <v>421</v>
@@ -13904,10 +13898,10 @@
         <v>14</v>
       </c>
       <c r="L246" s="7" t="s">
-        <v>818</v>
+        <v>744</v>
       </c>
       <c r="M246" s="7" t="s">
-        <v>819</v>
+        <v>745</v>
       </c>
       <c r="N246" s="8" t="s">
         <v>421</v>
@@ -13948,10 +13942,10 @@
         <v>14</v>
       </c>
       <c r="L247" s="7" t="s">
-        <v>820</v>
+        <v>746</v>
       </c>
       <c r="M247" s="7" t="s">
-        <v>821</v>
+        <v>747</v>
       </c>
       <c r="N247" s="8" t="s">
         <v>421</v>
@@ -13992,10 +13986,10 @@
         <v>14</v>
       </c>
       <c r="L248" s="7" t="s">
-        <v>822</v>
+        <v>748</v>
       </c>
       <c r="M248" s="7" t="s">
-        <v>823</v>
+        <v>749</v>
       </c>
       <c r="N248" s="8" t="s">
         <v>421</v>
@@ -14036,10 +14030,10 @@
         <v>14</v>
       </c>
       <c r="L249" s="7" t="s">
-        <v>824</v>
+        <v>750</v>
       </c>
       <c r="M249" s="7" t="s">
-        <v>825</v>
+        <v>751</v>
       </c>
       <c r="N249" s="8" t="s">
         <v>420</v>
@@ -14080,10 +14074,10 @@
         <v>14</v>
       </c>
       <c r="L250" s="7" t="s">
-        <v>826</v>
+        <v>752</v>
       </c>
       <c r="M250" s="7" t="s">
-        <v>827</v>
+        <v>753</v>
       </c>
       <c r="N250" s="8" t="s">
         <v>420</v>
@@ -14124,10 +14118,10 @@
         <v>14</v>
       </c>
       <c r="L251" s="7" t="s">
-        <v>828</v>
+        <v>754</v>
       </c>
       <c r="M251" s="7" t="s">
-        <v>829</v>
+        <v>755</v>
       </c>
       <c r="N251" s="8" t="s">
         <v>421</v>
@@ -14168,10 +14162,10 @@
         <v>14</v>
       </c>
       <c r="L252" s="7" t="s">
-        <v>830</v>
+        <v>756</v>
       </c>
       <c r="M252" s="7" t="s">
-        <v>831</v>
+        <v>757</v>
       </c>
       <c r="N252" s="8" t="s">
         <v>421</v>
@@ -14212,10 +14206,10 @@
         <v>14</v>
       </c>
       <c r="L253" s="7" t="s">
-        <v>832</v>
+        <v>758</v>
       </c>
       <c r="M253" s="7" t="s">
-        <v>833</v>
+        <v>759</v>
       </c>
       <c r="N253" s="8" t="s">
         <v>32</v>
@@ -14256,10 +14250,10 @@
         <v>14</v>
       </c>
       <c r="L254" s="7" t="s">
-        <v>834</v>
+        <v>872</v>
       </c>
       <c r="M254" s="7" t="s">
-        <v>835</v>
+        <v>873</v>
       </c>
       <c r="N254" s="8" t="s">
         <v>32</v>
@@ -14300,10 +14294,10 @@
         <v>14</v>
       </c>
       <c r="L255" s="7" t="s">
-        <v>836</v>
+        <v>874</v>
       </c>
       <c r="M255" s="7" t="s">
-        <v>837</v>
+        <v>875</v>
       </c>
       <c r="N255" s="8" t="s">
         <v>32</v>
@@ -14344,10 +14338,10 @@
         <v>14</v>
       </c>
       <c r="L256" s="7" t="s">
-        <v>838</v>
+        <v>760</v>
       </c>
       <c r="M256" s="7" t="s">
-        <v>839</v>
+        <v>761</v>
       </c>
       <c r="N256" s="8" t="s">
         <v>421</v>
@@ -14388,10 +14382,10 @@
         <v>14</v>
       </c>
       <c r="L257" s="7" t="s">
-        <v>840</v>
+        <v>762</v>
       </c>
       <c r="M257" s="7" t="s">
-        <v>841</v>
+        <v>763</v>
       </c>
       <c r="N257" s="8" t="s">
         <v>421</v>
@@ -14432,10 +14426,10 @@
         <v>14</v>
       </c>
       <c r="L258" s="7" t="s">
-        <v>842</v>
+        <v>764</v>
       </c>
       <c r="M258" s="7" t="s">
-        <v>843</v>
+        <v>765</v>
       </c>
       <c r="N258" s="8" t="s">
         <v>421</v>
@@ -14476,10 +14470,10 @@
         <v>14</v>
       </c>
       <c r="L259" s="7" t="s">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="M259" s="7" t="s">
-        <v>845</v>
+        <v>767</v>
       </c>
       <c r="N259" s="8" t="s">
         <v>421</v>
@@ -14520,10 +14514,10 @@
         <v>14</v>
       </c>
       <c r="L260" s="7" t="s">
-        <v>846</v>
+        <v>768</v>
       </c>
       <c r="M260" s="7" t="s">
-        <v>847</v>
+        <v>769</v>
       </c>
       <c r="N260" s="8" t="s">
         <v>422</v>
@@ -14564,10 +14558,10 @@
         <v>14</v>
       </c>
       <c r="L261" s="7" t="s">
-        <v>848</v>
+        <v>770</v>
       </c>
       <c r="M261" s="7" t="s">
-        <v>849</v>
+        <v>771</v>
       </c>
       <c r="N261" s="8" t="s">
         <v>422</v>
@@ -14608,10 +14602,10 @@
         <v>14</v>
       </c>
       <c r="L262" s="7" t="s">
-        <v>850</v>
+        <v>772</v>
       </c>
       <c r="M262" s="7" t="s">
-        <v>851</v>
+        <v>773</v>
       </c>
       <c r="N262" s="8" t="s">
         <v>422</v>
@@ -14652,10 +14646,10 @@
         <v>14</v>
       </c>
       <c r="L263" s="7" t="s">
-        <v>852</v>
+        <v>774</v>
       </c>
       <c r="M263" s="7" t="s">
-        <v>853</v>
+        <v>775</v>
       </c>
       <c r="N263" s="8" t="s">
         <v>421</v>
@@ -14696,10 +14690,10 @@
         <v>14</v>
       </c>
       <c r="L264" s="7" t="s">
-        <v>854</v>
+        <v>776</v>
       </c>
       <c r="M264" s="7" t="s">
-        <v>855</v>
+        <v>777</v>
       </c>
       <c r="N264" s="8" t="s">
         <v>421</v>
@@ -14740,10 +14734,10 @@
         <v>14</v>
       </c>
       <c r="L265" s="7" t="s">
-        <v>856</v>
+        <v>778</v>
       </c>
       <c r="M265" s="7" t="s">
-        <v>857</v>
+        <v>779</v>
       </c>
       <c r="N265" s="8">
         <v>100</v>
@@ -14784,10 +14778,10 @@
         <v>13</v>
       </c>
       <c r="L266" s="7" t="s">
-        <v>816</v>
+        <v>742</v>
       </c>
       <c r="M266" s="7" t="s">
-        <v>858</v>
+        <v>780</v>
       </c>
       <c r="N266" s="8" t="s">
         <v>421</v>
@@ -14828,10 +14822,10 @@
         <v>13</v>
       </c>
       <c r="L267" s="7" t="s">
-        <v>818</v>
+        <v>744</v>
       </c>
       <c r="M267" s="7" t="s">
-        <v>859</v>
+        <v>781</v>
       </c>
       <c r="N267" s="8" t="s">
         <v>421</v>
@@ -14872,10 +14866,10 @@
         <v>13</v>
       </c>
       <c r="L268" s="7" t="s">
-        <v>820</v>
+        <v>746</v>
       </c>
       <c r="M268" s="7" t="s">
-        <v>860</v>
+        <v>782</v>
       </c>
       <c r="N268" s="8" t="s">
         <v>421</v>
@@ -14916,10 +14910,10 @@
         <v>13</v>
       </c>
       <c r="L269" s="7" t="s">
-        <v>822</v>
+        <v>748</v>
       </c>
       <c r="M269" s="7" t="s">
-        <v>861</v>
+        <v>783</v>
       </c>
       <c r="N269" s="8" t="s">
         <v>421</v>
@@ -14960,10 +14954,10 @@
         <v>13</v>
       </c>
       <c r="L270" s="7" t="s">
-        <v>824</v>
+        <v>750</v>
       </c>
       <c r="M270" s="7" t="s">
-        <v>862</v>
+        <v>784</v>
       </c>
       <c r="N270" s="8" t="s">
         <v>420</v>
@@ -15004,10 +14998,10 @@
         <v>13</v>
       </c>
       <c r="L271" s="7" t="s">
-        <v>826</v>
+        <v>752</v>
       </c>
       <c r="M271" s="7" t="s">
-        <v>863</v>
+        <v>785</v>
       </c>
       <c r="N271" s="8" t="s">
         <v>420</v>
@@ -15048,10 +15042,10 @@
         <v>13</v>
       </c>
       <c r="L272" s="7" t="s">
-        <v>828</v>
+        <v>754</v>
       </c>
       <c r="M272" s="7" t="s">
-        <v>864</v>
+        <v>786</v>
       </c>
       <c r="N272" s="8" t="s">
         <v>421</v>
@@ -15092,10 +15086,10 @@
         <v>13</v>
       </c>
       <c r="L273" s="7" t="s">
-        <v>830</v>
+        <v>756</v>
       </c>
       <c r="M273" s="7" t="s">
-        <v>865</v>
+        <v>787</v>
       </c>
       <c r="N273" s="8" t="s">
         <v>421</v>
@@ -15136,10 +15130,10 @@
         <v>13</v>
       </c>
       <c r="L274" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="M274" s="7" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="N274" s="8" t="s">
         <v>421</v>
@@ -15180,10 +15174,10 @@
         <v>13</v>
       </c>
       <c r="L275" s="7" t="s">
-        <v>834</v>
+        <v>872</v>
       </c>
       <c r="M275" s="7" t="s">
-        <v>866</v>
+        <v>876</v>
       </c>
       <c r="N275" s="8" t="s">
         <v>32</v>
@@ -15224,10 +15218,10 @@
         <v>13</v>
       </c>
       <c r="L276" s="7" t="s">
-        <v>836</v>
+        <v>874</v>
       </c>
       <c r="M276" s="7" t="s">
-        <v>867</v>
+        <v>877</v>
       </c>
       <c r="N276" s="8" t="s">
         <v>32</v>
@@ -15268,10 +15262,10 @@
         <v>13</v>
       </c>
       <c r="L277" s="7" t="s">
-        <v>838</v>
+        <v>760</v>
       </c>
       <c r="M277" s="7" t="s">
-        <v>868</v>
+        <v>788</v>
       </c>
       <c r="N277" s="8" t="s">
         <v>421</v>
@@ -15312,10 +15306,10 @@
         <v>13</v>
       </c>
       <c r="L278" s="7" t="s">
-        <v>840</v>
+        <v>762</v>
       </c>
       <c r="M278" s="7" t="s">
-        <v>869</v>
+        <v>789</v>
       </c>
       <c r="N278" s="8" t="s">
         <v>421</v>
@@ -15356,10 +15350,10 @@
         <v>13</v>
       </c>
       <c r="L279" s="7" t="s">
-        <v>842</v>
+        <v>764</v>
       </c>
       <c r="M279" s="7" t="s">
-        <v>870</v>
+        <v>790</v>
       </c>
       <c r="N279" s="8" t="s">
         <v>421</v>
@@ -15400,10 +15394,10 @@
         <v>13</v>
       </c>
       <c r="L280" s="7" t="s">
-        <v>844</v>
+        <v>766</v>
       </c>
       <c r="M280" s="7" t="s">
-        <v>871</v>
+        <v>791</v>
       </c>
       <c r="N280" s="8" t="s">
         <v>421</v>
@@ -15444,10 +15438,10 @@
         <v>13</v>
       </c>
       <c r="L281" s="7" t="s">
-        <v>872</v>
+        <v>792</v>
       </c>
       <c r="M281" s="7" t="s">
-        <v>873</v>
+        <v>793</v>
       </c>
       <c r="N281" s="8" t="s">
         <v>422</v>
@@ -15488,10 +15482,10 @@
         <v>13</v>
       </c>
       <c r="L282" s="7" t="s">
-        <v>846</v>
+        <v>768</v>
       </c>
       <c r="M282" s="7" t="s">
-        <v>874</v>
+        <v>794</v>
       </c>
       <c r="N282" s="8" t="s">
         <v>422</v>
@@ -15532,10 +15526,10 @@
         <v>13</v>
       </c>
       <c r="L283" s="7" t="s">
-        <v>848</v>
+        <v>770</v>
       </c>
       <c r="M283" s="7" t="s">
-        <v>875</v>
+        <v>795</v>
       </c>
       <c r="N283" s="8" t="s">
         <v>422</v>
@@ -15576,10 +15570,10 @@
         <v>13</v>
       </c>
       <c r="L284" s="7" t="s">
-        <v>850</v>
+        <v>772</v>
       </c>
       <c r="M284" s="7" t="s">
-        <v>876</v>
+        <v>796</v>
       </c>
       <c r="N284" s="8" t="s">
         <v>422</v>
@@ -15620,10 +15614,10 @@
         <v>13</v>
       </c>
       <c r="L285" s="7" t="s">
-        <v>852</v>
+        <v>774</v>
       </c>
       <c r="M285" s="7" t="s">
-        <v>877</v>
+        <v>797</v>
       </c>
       <c r="N285" s="8" t="s">
         <v>421</v>
@@ -15664,10 +15658,10 @@
         <v>13</v>
       </c>
       <c r="L286" s="7" t="s">
-        <v>854</v>
+        <v>776</v>
       </c>
       <c r="M286" s="7" t="s">
-        <v>878</v>
+        <v>798</v>
       </c>
       <c r="N286" s="8" t="s">
         <v>421</v>
@@ -15708,10 +15702,10 @@
         <v>13</v>
       </c>
       <c r="L287" s="7" t="s">
-        <v>856</v>
+        <v>778</v>
       </c>
       <c r="M287" s="7" t="s">
-        <v>879</v>
+        <v>799</v>
       </c>
       <c r="N287" s="8">
         <v>100</v>
